--- a/data/trans_orig/P1419-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76247144-F28A-4688-918F-4D613A9221D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F9B3C8-601F-4D9D-B60C-A2B39784B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64FE267C-F6AA-4B73-A34C-0681CDFE53F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7E93069-981D-481B-94EB-45B27E760A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="634">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>96,27%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1777 +167,1780 @@
     <t>3,87%</t>
   </si>
   <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,96%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA22B528-5157-4F57-A71E-1BC377357C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAC487D-5CF1-4765-ADE5-74BCD4B0B10A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3145,10 +3148,10 @@
         <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3157,13 +3160,13 @@
         <v>45184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3172,13 +3175,13 @@
         <v>51351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3196,13 @@
         <v>352504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>337</v>
@@ -3208,13 +3211,13 @@
         <v>326272</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>693</v>
@@ -3223,13 +3226,13 @@
         <v>678776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3288,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3303,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3318,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3333,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3351,13 @@
         <v>2991</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3363,10 +3366,10 @@
         <v>15240</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>110</v>
@@ -3420,7 +3423,7 @@
         <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>387</v>
@@ -3429,13 +3432,13 @@
         <v>392745</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3494,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3509,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3539,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3557,13 @@
         <v>4819</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -3569,13 +3572,13 @@
         <v>33175</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -3584,13 +3587,13 @@
         <v>37994</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3608,13 @@
         <v>265992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>238</v>
@@ -3620,13 +3623,13 @@
         <v>244969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>500</v>
@@ -3635,13 +3638,13 @@
         <v>510961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3700,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3715,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3730,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3745,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3763,13 @@
         <v>9547</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -3775,13 +3778,13 @@
         <v>52332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -3790,13 +3793,13 @@
         <v>61878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3814,13 @@
         <v>605480</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>569</v>
@@ -3826,13 +3829,13 @@
         <v>585887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>1158</v>
@@ -3841,13 +3844,13 @@
         <v>1191368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3906,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3951,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3969,13 @@
         <v>43184</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -3981,13 +3984,13 @@
         <v>116258</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>155</v>
@@ -3996,13 +3999,13 @@
         <v>159442</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4020,13 @@
         <v>700611</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>635</v>
@@ -4032,13 +4035,13 @@
         <v>667253</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>1326</v>
@@ -4047,13 +4050,13 @@
         <v>1367864</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4142,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4157,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4175,13 @@
         <v>99079</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="H37" s="7">
         <v>354</v>
@@ -4187,13 +4190,13 @@
         <v>364338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M37" s="7">
         <v>451</v>
@@ -4202,13 +4205,13 @@
         <v>463416</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4226,13 @@
         <v>3177465</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H38" s="7">
         <v>2943</v>
@@ -4238,28 +4241,28 @@
         <v>3014860</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M38" s="7">
         <v>6060</v>
       </c>
       <c r="N38" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4304,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4315,7 +4318,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CBD21F-216A-4C02-A1E8-159C6CA58981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08367026-F9DB-4671-A9BE-D981C84C5E81}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4356,7 +4359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4461,39 +4464,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,39 +4509,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,39 +4554,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,39 +4599,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4696,13 +4699,13 @@
         <v>7153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -4711,13 +4714,13 @@
         <v>30566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -4726,13 +4729,13 @@
         <v>37719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4750,13 @@
         <v>498374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>453</v>
@@ -4762,13 +4765,13 @@
         <v>493199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
@@ -4777,13 +4780,13 @@
         <v>991573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4860,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4872,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4902,13 +4905,13 @@
         <v>4147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4917,13 +4920,13 @@
         <v>14552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4932,13 +4935,13 @@
         <v>18699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4956,13 @@
         <v>319899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>303</v>
@@ -4968,13 +4971,13 @@
         <v>326468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -4983,13 +4986,13 @@
         <v>646367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5078,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5093,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5111,13 @@
         <v>6348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5123,13 +5126,13 @@
         <v>62116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5138,13 +5141,13 @@
         <v>68464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5162,13 @@
         <v>662372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -5174,13 +5177,13 @@
         <v>614080</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>1192</v>
@@ -5189,13 +5192,13 @@
         <v>1276452</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5254,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5269,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5284,7 +5287,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5299,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5317,13 @@
         <v>5372</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -5329,13 +5332,13 @@
         <v>37347</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -5344,13 +5347,13 @@
         <v>42720</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5368,13 @@
         <v>207246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5380,13 +5383,13 @@
         <v>182244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -5395,13 +5398,13 @@
         <v>389489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5460,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5475,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5505,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5523,13 @@
         <v>3035</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5535,13 +5538,13 @@
         <v>22359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -5550,13 +5553,13 @@
         <v>25395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5574,13 @@
         <v>270946</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -5586,13 +5589,13 @@
         <v>255737</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -5601,10 +5604,10 @@
         <v>526682</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>291</v>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5681,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5711,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5729,13 @@
         <v>6291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5741,13 +5744,13 @@
         <v>70029</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -5756,10 +5759,10 @@
         <v>76320</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>297</v>
@@ -5777,13 +5780,13 @@
         <v>656497</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H30" s="7">
         <v>571</v>
@@ -5792,13 +5795,13 @@
         <v>623824</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M30" s="7">
         <v>1184</v>
@@ -5807,13 +5810,13 @@
         <v>1280321</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,7 +5872,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5917,7 +5920,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,7 +6016,7 @@
         <v>1530519</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>321</v>
@@ -6093,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6108,7 +6111,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6123,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,10 +6144,10 @@
         <v>323</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H37" s="7">
         <v>278</v>
@@ -6153,13 +6156,13 @@
         <v>299684</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" s="7">
         <v>314</v>
@@ -6168,13 +6171,13 @@
         <v>340472</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6192,13 @@
         <v>3385991</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="H38" s="7">
         <v>3018</v>
@@ -6204,28 +6207,28 @@
         <v>3255414</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M38" s="7">
         <v>6191</v>
       </c>
       <c r="N38" s="7">
-        <v>6641405</v>
+        <v>6641406</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6270,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6305,7 +6308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D1C84D-0BCB-419B-92E8-D136698176ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED6945-E78D-494A-9F8F-792B417132BF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6322,7 +6325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6435,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6450,7 +6453,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6465,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6483,13 @@
         <v>3657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -6495,13 +6498,13 @@
         <v>20264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -6510,13 +6513,13 @@
         <v>23922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,10 +6534,10 @@
         <v>290104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>73</v>
@@ -6546,13 +6549,13 @@
         <v>268439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>521</v>
@@ -6561,13 +6564,13 @@
         <v>558542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6644,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6656,7 +6659,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6686,13 +6689,13 @@
         <v>1146</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -6701,13 +6704,13 @@
         <v>11576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -6716,13 +6719,13 @@
         <v>12722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6740,13 @@
         <v>501429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -6752,13 +6755,13 @@
         <v>511508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>949</v>
@@ -6767,13 +6770,13 @@
         <v>1012937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6865,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6877,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6895,13 @@
         <v>4897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6907,13 +6910,13 @@
         <v>39636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -6922,13 +6925,13 @@
         <v>44534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6946,13 @@
         <v>313668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -6958,13 +6961,13 @@
         <v>296673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -6973,13 +6976,13 @@
         <v>610340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,7 +7056,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7098,13 +7101,13 @@
         <v>6283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7113,13 +7116,13 @@
         <v>29801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -7128,13 +7131,13 @@
         <v>36084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7152,13 @@
         <v>363681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -7164,13 +7167,13 @@
         <v>357482</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>682</v>
@@ -7179,13 +7182,13 @@
         <v>721163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7244,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7259,7 +7262,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7274,7 +7277,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7289,7 +7292,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7307,13 @@
         <v>3966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>412</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -7319,13 +7322,13 @@
         <v>6848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -7334,13 +7337,13 @@
         <v>10813</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>408</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7358,13 @@
         <v>207255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>216</v>
@@ -7370,13 +7373,13 @@
         <v>211739</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -7385,13 +7388,13 @@
         <v>418995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,7 +7450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7465,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7480,7 +7483,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7510,13 +7513,13 @@
         <v>2928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -7525,13 +7528,13 @@
         <v>14273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7540,13 +7543,13 @@
         <v>17200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,10 +7564,10 @@
         <v>260195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>73</v>
@@ -7576,13 +7579,13 @@
         <v>258842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>507</v>
@@ -7591,13 +7594,13 @@
         <v>519038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>431</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,7 +7656,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7671,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7701,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,13 +7719,13 @@
         <v>14528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -7731,13 +7734,13 @@
         <v>38833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -7746,13 +7749,13 @@
         <v>53361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>438</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7770,13 @@
         <v>642030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H30" s="7">
         <v>612</v>
@@ -7782,13 +7785,13 @@
         <v>652461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>1178</v>
@@ -7797,13 +7800,13 @@
         <v>1294491</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>444</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,7 +7862,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7907,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,13 +7925,13 @@
         <v>14936</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H33" s="7">
         <v>48</v>
@@ -7937,10 +7940,10 @@
         <v>57026</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>450</v>
+        <v>113</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>451</v>
+        <v>278</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>452</v>
@@ -7988,13 +7991,13 @@
         <v>769141</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>461</v>
+        <v>288</v>
       </c>
       <c r="M34" s="7">
         <v>1443</v>
@@ -8003,13 +8006,13 @@
         <v>1532788</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,7 +8086,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8113,7 +8116,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8131,13 @@
         <v>52341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H37" s="7">
         <v>187</v>
@@ -8143,13 +8146,13 @@
         <v>218258</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M37" s="7">
         <v>237</v>
@@ -8158,13 +8161,13 @@
         <v>270599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8182,13 @@
         <v>3342009</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H38" s="7">
         <v>3151</v>
@@ -8194,13 +8197,13 @@
         <v>3326284</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M38" s="7">
         <v>6332</v>
@@ -8209,13 +8212,13 @@
         <v>6668293</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>479</v>
+        <v>340</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,7 +8274,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7BCFB7-1EC0-4D91-BDD2-509720CA4F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0362DE-D40F-4E2B-9CC1-D558821FBDB8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8312,7 +8315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8425,7 +8428,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8440,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8455,7 +8458,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,13 +8473,13 @@
         <v>2344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -8485,13 +8488,13 @@
         <v>4897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>485</v>
+        <v>408</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -8500,13 +8503,13 @@
         <v>7241</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8524,13 @@
         <v>257954</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7">
         <v>527</v>
@@ -8536,13 +8539,13 @@
         <v>266506</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>854</v>
@@ -8551,13 +8554,13 @@
         <v>524459</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,7 +8664,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,13 +8679,13 @@
         <v>15606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -8691,13 +8694,13 @@
         <v>56763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -8706,13 +8709,13 @@
         <v>72369</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,13 +8730,13 @@
         <v>502621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>633</v>
@@ -8742,13 +8745,13 @@
         <v>496318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
@@ -8757,13 +8760,13 @@
         <v>998939</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,7 +8855,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8867,7 +8870,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8882,13 +8885,13 @@
         <v>13023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -8897,13 +8900,13 @@
         <v>30300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -8912,13 +8915,13 @@
         <v>43323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8933,13 +8936,13 @@
         <v>309217</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -8948,13 +8951,13 @@
         <v>342984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>826</v>
@@ -8963,13 +8966,13 @@
         <v>652201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9058,7 +9061,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9073,7 +9076,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9088,13 +9091,13 @@
         <v>6812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -9103,13 +9106,13 @@
         <v>27373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -9118,13 +9121,13 @@
         <v>34184</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>541</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9139,13 +9142,13 @@
         <v>315428</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="H18" s="7">
         <v>545</v>
@@ -9154,13 +9157,13 @@
         <v>401183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>829</v>
@@ -9169,13 +9172,13 @@
         <v>716612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>548</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,7 +9234,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9249,7 +9252,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9258,13 +9261,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9273,13 +9276,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9297,13 @@
         <v>12770</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>227</v>
+        <v>547</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
@@ -9309,13 +9312,13 @@
         <v>47147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -9324,13 +9327,13 @@
         <v>59916</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9348,13 @@
         <v>183978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -9360,13 +9363,13 @@
         <v>184349</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>638</v>
@@ -9375,13 +9378,13 @@
         <v>368327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,7 +9440,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9455,7 +9458,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9470,7 +9473,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>565</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9479,13 +9482,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,13 +9503,13 @@
         <v>10995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -9515,13 +9518,13 @@
         <v>40172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -9530,13 +9533,13 @@
         <v>51166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>20</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9554,13 @@
         <v>266228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>574</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>374</v>
@@ -9566,13 +9569,13 @@
         <v>234733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>725</v>
@@ -9581,13 +9584,13 @@
         <v>500961</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9643,7 +9646,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9661,7 +9664,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9691,7 +9694,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,13 +9709,13 @@
         <v>55218</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>230</v>
@@ -9721,13 +9724,13 @@
         <v>153806</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -9736,13 +9739,13 @@
         <v>209024</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,13 +9760,13 @@
         <v>571759</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="H30" s="7">
         <v>729</v>
@@ -9772,13 +9775,13 @@
         <v>650238</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="M30" s="7">
         <v>1265</v>
@@ -9787,13 +9790,13 @@
         <v>1221996</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,7 +9852,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9876,13 +9879,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9891,13 +9894,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9912,13 +9915,13 @@
         <v>12799</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -9927,13 +9930,13 @@
         <v>40064</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M33" s="7">
         <v>68</v>
@@ -9942,13 +9945,13 @@
         <v>52862</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>284</v>
+        <v>605</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9963,13 +9966,13 @@
         <v>846629</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H34" s="7">
         <v>1006</v>
@@ -9978,13 +9981,13 @@
         <v>825608</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>613</v>
+        <v>391</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>611</v>
       </c>
       <c r="M34" s="7">
         <v>1755</v>
@@ -9993,13 +9996,13 @@
         <v>1672238</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10073,7 +10076,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10082,13 +10085,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10097,13 +10100,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>620</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10118,13 +10121,13 @@
         <v>129566</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>620</v>
       </c>
       <c r="H37" s="7">
         <v>681</v>
@@ -10133,13 +10136,13 @@
         <v>400520</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M37" s="7">
         <v>840</v>
@@ -10148,13 +10151,13 @@
         <v>530086</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>626</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>294</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10169,13 +10172,13 @@
         <v>3253814</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H38" s="7">
         <v>4677</v>
@@ -10184,7 +10187,7 @@
         <v>3401919</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>397</v>
+        <v>628</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>629</v>
@@ -10205,7 +10208,7 @@
         <v>632</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10261,7 +10264,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1419-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F9B3C8-601F-4D9D-B60C-A2B39784B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271EE9F4-609C-41B7-A8FF-876C73ABCA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7E93069-981D-481B-94EB-45B27E760A7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A322C9C-4379-41D3-B400-2C5E31F44FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="627">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1578 +95,1572 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
     <t>37,13%</t>
   </si>
   <si>
@@ -1703,9 +1697,6 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
     <t>93,51%</t>
   </si>
   <si>
@@ -1742,9 +1733,6 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
     <t>5,89%</t>
   </si>
   <si>
@@ -1769,9 +1757,6 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
     <t>81,84%</t>
   </si>
   <si>
@@ -1784,9 +1769,6 @@
     <t>88,62%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
@@ -1854,9 +1836,6 @@
   </si>
   <si>
     <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -2352,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAC487D-5CF1-4765-ADE5-74BCD4B0B10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA0CB9-413A-4129-A7A4-1AE268CB5372}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3148,10 +3127,10 @@
         <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3160,13 +3139,13 @@
         <v>45184</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3175,13 +3154,13 @@
         <v>51351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3175,13 @@
         <v>352504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>337</v>
@@ -3211,13 +3190,13 @@
         <v>326272</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>693</v>
@@ -3226,13 +3205,13 @@
         <v>678776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3267,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3306,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3321,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3336,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3330,13 @@
         <v>2991</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3366,13 +3345,13 @@
         <v>15240</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3381,13 +3360,13 @@
         <v>18231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3381,13 @@
         <v>200317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3417,10 +3396,10 @@
         <v>192428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>115</v>
@@ -3432,13 +3411,13 @@
         <v>392745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3512,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3542,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3536,13 @@
         <v>4819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -3572,13 +3551,13 @@
         <v>33175</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -3587,13 +3566,13 @@
         <v>37994</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3587,13 @@
         <v>265992</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>238</v>
@@ -3623,13 +3602,13 @@
         <v>244969</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>500</v>
@@ -3638,13 +3617,13 @@
         <v>510961</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3679,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3718,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3733,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3748,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,10 +3742,10 @@
         <v>9547</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>146</v>
@@ -3784,7 +3763,7 @@
         <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -3793,13 +3772,13 @@
         <v>61878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3793,13 @@
         <v>605480</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>569</v>
@@ -3829,13 +3808,13 @@
         <v>585887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M30" s="7">
         <v>1158</v>
@@ -3844,13 +3823,13 @@
         <v>1191368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3885,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3954,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3948,13 @@
         <v>43184</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -3984,13 +3963,13 @@
         <v>116258</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>155</v>
@@ -3999,13 +3978,13 @@
         <v>159442</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +3999,13 @@
         <v>700611</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>635</v>
@@ -4035,13 +4014,13 @@
         <v>667253</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>1326</v>
@@ -4050,13 +4029,13 @@
         <v>1367864</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4145,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4160,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4154,13 @@
         <v>99079</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>354</v>
@@ -4190,13 +4169,13 @@
         <v>364338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>451</v>
@@ -4205,13 +4184,13 @@
         <v>463416</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,16 +4202,16 @@
         <v>3117</v>
       </c>
       <c r="D38" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>2943</v>
@@ -4241,13 +4220,13 @@
         <v>3014860</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>6060</v>
@@ -4256,13 +4235,13 @@
         <v>6192325</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,7 +4253,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4318,7 +4297,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08367026-F9DB-4671-A9BE-D981C84C5E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711AA5FB-CC43-4971-B05C-E197F8E8DF30}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4359,7 +4338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,39 +4443,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,39 +4488,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,39 +4533,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,39 +4578,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4699,13 +4678,13 @@
         <v>7153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -4714,13 +4693,13 @@
         <v>30566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -4729,13 +4708,13 @@
         <v>37719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4729,13 @@
         <v>498374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>453</v>
@@ -4765,13 +4744,13 @@
         <v>493199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
@@ -4780,13 +4759,13 @@
         <v>991573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4875,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4905,13 +4884,13 @@
         <v>4147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4920,13 +4899,13 @@
         <v>14552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4935,13 +4914,13 @@
         <v>18699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,10 +4968,10 @@
         <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5081,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5096,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5090,13 @@
         <v>6348</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5126,13 +5105,13 @@
         <v>62116</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5141,13 +5120,13 @@
         <v>68464</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5141,13 @@
         <v>662372</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -5254,7 +5233,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5302,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,10 +5296,10 @@
         <v>5372</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>258</v>
@@ -5368,13 +5347,13 @@
         <v>207246</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>176</v>
@@ -5383,13 +5362,13 @@
         <v>182244</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -5398,13 +5377,13 @@
         <v>389489</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5439,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5478,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5508,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,7 +5645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5684,7 +5663,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5714,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,10 +5708,10 @@
         <v>6291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>69</v>
@@ -5780,13 +5759,13 @@
         <v>656497</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="H30" s="7">
         <v>571</v>
@@ -5795,13 +5774,13 @@
         <v>623824</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M30" s="7">
         <v>1184</v>
@@ -5810,13 +5789,13 @@
         <v>1280321</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5851,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5890,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5905,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5920,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5914,13 @@
         <v>8442</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H33" s="7">
         <v>58</v>
@@ -5950,13 +5929,13 @@
         <v>62715</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -5965,13 +5944,13 @@
         <v>71157</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5965,13 @@
         <v>770656</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -6001,13 +5980,13 @@
         <v>759863</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M34" s="7">
         <v>1407</v>
@@ -6016,13 +5995,13 @@
         <v>1530519</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6111,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6126,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6120,13 @@
         <v>40788</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H37" s="7">
         <v>278</v>
@@ -6156,13 +6135,13 @@
         <v>299684</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M37" s="7">
         <v>314</v>
@@ -6171,13 +6150,13 @@
         <v>340472</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6171,13 @@
         <v>3385991</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H38" s="7">
         <v>3018</v>
@@ -6207,28 +6186,28 @@
         <v>3255414</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M38" s="7">
         <v>6191</v>
       </c>
       <c r="N38" s="7">
-        <v>6641406</v>
+        <v>6641405</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6249,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6284,7 +6263,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6308,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED6945-E78D-494A-9F8F-792B417132BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FCBA4-FAD6-498B-B3BF-65F332B26CBE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6325,7 +6304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6438,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6453,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6468,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6462,13 @@
         <v>3657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -6498,13 +6477,13 @@
         <v>20264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -6513,13 +6492,13 @@
         <v>23922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,10 +6513,10 @@
         <v>290104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>73</v>
@@ -6549,13 +6528,13 @@
         <v>268439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>521</v>
@@ -6564,13 +6543,13 @@
         <v>558542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6659,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6689,13 +6668,13 @@
         <v>1146</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -6704,13 +6683,13 @@
         <v>11576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -6719,13 +6698,13 @@
         <v>12722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6719,13 @@
         <v>501429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -6755,13 +6734,13 @@
         <v>511508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>949</v>
@@ -6770,13 +6749,13 @@
         <v>1012937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6880,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6874,13 @@
         <v>4897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6910,13 +6889,13 @@
         <v>39636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -6925,13 +6904,13 @@
         <v>44534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6925,13 @@
         <v>313668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -6961,13 +6940,13 @@
         <v>296673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -6976,13 +6955,13 @@
         <v>610340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7086,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7080,13 @@
         <v>6283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7116,13 +7095,13 @@
         <v>29801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -7131,13 +7110,13 @@
         <v>36084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7131,13 @@
         <v>363681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -7167,13 +7146,13 @@
         <v>357482</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="M18" s="7">
         <v>682</v>
@@ -7182,13 +7161,13 @@
         <v>721163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7223,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7277,7 +7256,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7292,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7286,13 @@
         <v>3966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -7322,13 +7301,13 @@
         <v>6848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -7337,13 +7316,13 @@
         <v>10813</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7337,13 @@
         <v>207255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>216</v>
@@ -7373,13 +7352,13 @@
         <v>211739</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -7388,13 +7367,13 @@
         <v>418995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7429,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7468,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7483,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7519,7 +7498,7 @@
         <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -7528,13 +7507,13 @@
         <v>14273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7543,13 +7522,13 @@
         <v>17200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,7 +7546,7 @@
         <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>73</v>
@@ -7579,13 +7558,13 @@
         <v>258842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>507</v>
@@ -7594,13 +7573,13 @@
         <v>519038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,7 +7635,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7674,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7704,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7698,13 @@
         <v>14528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -7734,13 +7713,13 @@
         <v>38833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -7749,13 +7728,13 @@
         <v>53361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7749,13 @@
         <v>642030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>445</v>
+        <v>229</v>
       </c>
       <c r="H30" s="7">
         <v>612</v>
@@ -7785,13 +7764,13 @@
         <v>652461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M30" s="7">
         <v>1178</v>
@@ -7800,13 +7779,13 @@
         <v>1294491</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>35</v>
+        <v>441</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>153</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7841,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7895,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7910,7 +7889,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7904,13 @@
         <v>14936</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H33" s="7">
         <v>48</v>
@@ -7940,13 +7919,13 @@
         <v>57026</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -7955,13 +7934,13 @@
         <v>71962</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +7955,13 @@
         <v>763647</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H34" s="7">
         <v>707</v>
@@ -7991,13 +7970,13 @@
         <v>769141</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>288</v>
+        <v>453</v>
       </c>
       <c r="M34" s="7">
         <v>1443</v>
@@ -8006,13 +7985,13 @@
         <v>1532788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8101,7 +8080,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8116,7 +8095,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8110,13 @@
         <v>52341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H37" s="7">
         <v>187</v>
@@ -8146,13 +8125,13 @@
         <v>218258</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M37" s="7">
         <v>237</v>
@@ -8161,13 +8140,13 @@
         <v>270599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>330</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8161,13 @@
         <v>3342009</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H38" s="7">
         <v>3151</v>
@@ -8197,13 +8176,13 @@
         <v>3326284</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M38" s="7">
         <v>6332</v>
@@ -8212,13 +8191,13 @@
         <v>6668293</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,7 +8253,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0362DE-D40F-4E2B-9CC1-D558821FBDB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A10E6BE-ACB7-457F-842E-E95CBACF4C47}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8315,7 +8294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8428,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8443,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8458,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,7 +8458,7 @@
         <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -8488,13 +8467,13 @@
         <v>4897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -8503,13 +8482,13 @@
         <v>7241</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,13 +8503,13 @@
         <v>257954</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H6" s="7">
         <v>527</v>
@@ -8539,13 +8518,13 @@
         <v>266506</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M6" s="7">
         <v>854</v>
@@ -8554,13 +8533,13 @@
         <v>524459</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8664,7 +8643,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,13 +8658,13 @@
         <v>15606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -8694,13 +8673,13 @@
         <v>56763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -8709,13 +8688,13 @@
         <v>72369</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8730,13 +8709,13 @@
         <v>502621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>633</v>
@@ -8745,13 +8724,13 @@
         <v>496318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
@@ -8760,13 +8739,13 @@
         <v>998939</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,7 +8834,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8870,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8864,13 @@
         <v>13023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>507</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -8900,13 +8879,13 @@
         <v>30300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -8915,13 +8894,13 @@
         <v>43323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>513</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +8915,13 @@
         <v>309217</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -8951,13 +8930,13 @@
         <v>342984</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>826</v>
@@ -8966,13 +8945,13 @@
         <v>652201</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9046,7 +9025,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9061,7 +9040,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9076,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,13 +9070,13 @@
         <v>6812</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>526</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -9106,13 +9085,13 @@
         <v>27373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -9121,13 +9100,13 @@
         <v>34184</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,13 +9121,13 @@
         <v>315428</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>534</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H18" s="7">
         <v>545</v>
@@ -9157,13 +9136,13 @@
         <v>401183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>536</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>829</v>
@@ -9172,13 +9151,13 @@
         <v>716612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,7 +9213,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9252,7 +9231,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9261,13 +9240,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9276,13 +9255,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9276,13 @@
         <v>12770</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
@@ -9312,13 +9291,13 @@
         <v>47147</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -9327,13 +9306,13 @@
         <v>59916</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9327,13 @@
         <v>183978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -9363,13 +9342,13 @@
         <v>184349</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>638</v>
@@ -9378,13 +9357,13 @@
         <v>368327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9440,7 +9419,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9458,7 +9437,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9473,7 +9452,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9482,13 +9461,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,13 +9482,13 @@
         <v>10995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>567</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -9518,13 +9497,13 @@
         <v>40172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -9533,13 +9512,13 @@
         <v>51166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9533,13 @@
         <v>266228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="H26" s="7">
         <v>374</v>
@@ -9569,13 +9548,13 @@
         <v>234733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>725</v>
@@ -9584,13 +9563,13 @@
         <v>500961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,7 +9625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9664,7 +9643,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9694,7 +9673,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9709,13 +9688,13 @@
         <v>55218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
         <v>230</v>
@@ -9724,13 +9703,13 @@
         <v>153806</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -9739,13 +9718,13 @@
         <v>209024</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,13 +9739,13 @@
         <v>571759</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>729</v>
@@ -9775,13 +9754,13 @@
         <v>650238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>1265</v>
@@ -9790,13 +9769,13 @@
         <v>1221996</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9852,7 +9831,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9870,7 +9849,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9879,13 +9858,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9894,13 +9873,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9915,13 +9894,13 @@
         <v>12799</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -9930,13 +9909,13 @@
         <v>40064</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M33" s="7">
         <v>68</v>
@@ -9945,13 +9924,13 @@
         <v>52862</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>605</v>
+        <v>64</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9966,13 +9945,13 @@
         <v>846629</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H34" s="7">
         <v>1006</v>
@@ -9981,13 +9960,13 @@
         <v>825608</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>139</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="M34" s="7">
         <v>1755</v>
@@ -9996,13 +9975,13 @@
         <v>1672238</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10076,7 +10055,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10085,13 +10064,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10100,13 +10079,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>464</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10121,13 +10100,13 @@
         <v>129566</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H37" s="7">
         <v>681</v>
@@ -10136,13 +10115,13 @@
         <v>400520</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M37" s="7">
         <v>840</v>
@@ -10151,13 +10130,13 @@
         <v>530086</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10172,13 +10151,13 @@
         <v>3253814</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H38" s="7">
         <v>4677</v>
@@ -10187,13 +10166,13 @@
         <v>3401919</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M38" s="7">
         <v>7892</v>
@@ -10202,13 +10181,13 @@
         <v>6655733</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10264,7 +10243,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1419-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909B44BC-7852-40E0-94A3-2D325CF0EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4462E8C6-CC7E-4901-B341-668D78361428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8C67756-61C8-448A-9F51-A81B13296114}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBCFF9F6-E968-4BEA-B309-FF4FAE872755}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="596">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -590,9 +641,6 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
     <t>5,84%</t>
   </si>
   <si>
@@ -614,9 +662,6 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
@@ -692,309 +737,327 @@
     <t>98,25%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
     <t>89,16%</t>
   </si>
   <si>
@@ -1010,9 +1073,6 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,26%</t>
   </si>
   <si>
@@ -1034,9 +1094,6 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,0%</t>
   </si>
   <si>
@@ -1382,424 +1439,394 @@
     <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B438A638-0E6A-466E-AC74-2298007CDBCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796629F2-5318-4643-87BB-978C2E422CA3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3623,7 +3650,7 @@
         <v>3117</v>
       </c>
       <c r="D29" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>169</v>
@@ -3638,7 +3665,7 @@
         <v>2943</v>
       </c>
       <c r="I29" s="7">
-        <v>3014860</v>
+        <v>3014859</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3653,7 +3680,7 @@
         <v>6060</v>
       </c>
       <c r="N29" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>175</v>
@@ -3674,7 +3701,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3689,7 +3716,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3704,7 +3731,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3742,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB0A854-81B4-4EC4-9818-21685A625F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5E2E2A-01F9-40F3-B3A3-C331E105DE85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,43 +3887,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2314</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15533</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17846</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,43 +3938,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D5" s="7">
+        <v>292424</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="I5" s="7">
+        <v>271712</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="N5" s="7">
+        <v>564137</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,43 +3989,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4048,13 @@
         <v>7153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4018,13 +4063,13 @@
         <v>30566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4033,13 +4078,13 @@
         <v>37719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4099,13 @@
         <v>498374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -4069,13 +4114,13 @@
         <v>493199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -4084,13 +4129,13 @@
         <v>991573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4203,13 @@
         <v>4147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4173,13 +4218,13 @@
         <v>14552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4188,13 +4233,13 @@
         <v>18699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4254,13 @@
         <v>319899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4224,13 +4269,13 @@
         <v>326468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>618</v>
@@ -4239,13 +4284,13 @@
         <v>646367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,49 +4352,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6348</v>
+        <v>4035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>62116</v>
+        <v>46583</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>68464</v>
+        <v>50618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,49 +4403,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>621</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>662372</v>
+        <v>369947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>571</v>
+        <v>328</v>
       </c>
       <c r="I14" s="7">
-        <v>614080</v>
+        <v>342368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>1192</v>
+        <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>1276452</v>
+        <v>712315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4424,10 +4469,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4439,10 +4484,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4471,10 +4516,10 @@
         <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4483,13 +4528,13 @@
         <v>37347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4498,13 +4543,13 @@
         <v>42720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,10 +4567,10 @@
         <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4534,13 +4579,13 @@
         <v>182244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4549,13 +4594,13 @@
         <v>389489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4668,13 @@
         <v>3035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4638,13 +4683,13 @@
         <v>22359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4653,10 +4698,10 @@
         <v>25395</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -4674,13 +4719,13 @@
         <v>270946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4689,13 +4734,13 @@
         <v>255737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>504</v>
@@ -4704,13 +4749,13 @@
         <v>526682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4823,13 @@
         <v>6291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4793,13 +4838,13 @@
         <v>70029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -4808,13 +4853,13 @@
         <v>76320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4874,13 @@
         <v>656497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7">
         <v>571</v>
@@ -4844,13 +4889,13 @@
         <v>623824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -4859,13 +4904,13 @@
         <v>1280321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4978,13 @@
         <v>8442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -4948,13 +4993,13 @@
         <v>62715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -4966,10 +5011,10 @@
         <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5029,13 @@
         <v>770656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>698</v>
@@ -4999,13 +5044,13 @@
         <v>759863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1407</v>
@@ -5017,10 +5062,10 @@
         <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5133,13 @@
         <v>40788</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>278</v>
@@ -5103,13 +5148,13 @@
         <v>299684</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>314</v>
@@ -5118,13 +5163,13 @@
         <v>340472</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5184,13 @@
         <v>3385991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>3018</v>
@@ -5154,13 +5199,13 @@
         <v>3255414</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>6191</v>
@@ -5169,13 +5214,13 @@
         <v>6641405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07060914-741A-40FB-8110-D5842BAC818B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A882A8-D936-42E8-99E6-F3749843DB87}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5272,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5379,13 +5424,13 @@
         <v>3657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5394,13 +5439,13 @@
         <v>20264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5409,13 +5454,13 @@
         <v>23922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,10 +5475,10 @@
         <v>290104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>62</v>
@@ -5445,13 +5490,13 @@
         <v>268439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>521</v>
@@ -5460,13 +5505,13 @@
         <v>558542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5579,13 @@
         <v>1146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5552,10 +5597,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5564,13 +5609,13 @@
         <v>12722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5630,13 @@
         <v>501429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>475</v>
@@ -5603,10 +5648,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>949</v>
@@ -5615,13 +5660,13 @@
         <v>1012937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5734,13 @@
         <v>4897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5704,13 +5749,13 @@
         <v>39636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5719,10 +5764,10 @@
         <v>44534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>56</v>
@@ -5740,13 +5785,13 @@
         <v>313668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -5755,13 +5800,13 @@
         <v>296673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -5770,13 +5815,13 @@
         <v>610340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5889,13 @@
         <v>6283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5859,13 +5904,13 @@
         <v>29801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -5874,13 +5919,13 @@
         <v>36084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5940,13 @@
         <v>363681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5910,13 +5955,13 @@
         <v>357482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>682</v>
@@ -5925,13 +5970,13 @@
         <v>721163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6044,13 @@
         <v>3966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6014,13 +6059,13 @@
         <v>6848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6029,10 +6074,10 @@
         <v>10813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -6050,13 +6095,13 @@
         <v>207255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -6065,13 +6110,13 @@
         <v>211739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -6080,13 +6125,13 @@
         <v>418995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6199,13 @@
         <v>2928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6169,13 +6214,13 @@
         <v>14273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6184,13 +6229,13 @@
         <v>17200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,10 +6250,10 @@
         <v>260195</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -6220,13 +6265,13 @@
         <v>258842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -6235,13 +6280,13 @@
         <v>519038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,10 +6357,10 @@
         <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6324,13 +6369,13 @@
         <v>38833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -6339,13 +6384,13 @@
         <v>53361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,10 +6408,10 @@
         <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>612</v>
@@ -6375,13 +6420,13 @@
         <v>652461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>1178</v>
@@ -6390,13 +6435,13 @@
         <v>1294491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6509,13 @@
         <v>14936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6479,13 +6524,13 @@
         <v>57026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6494,13 +6539,13 @@
         <v>71962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6560,13 @@
         <v>763647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -6530,13 +6575,13 @@
         <v>769141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>1443</v>
@@ -6545,13 +6590,13 @@
         <v>1532788</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6664,13 @@
         <v>52341</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>187</v>
@@ -6634,13 +6679,13 @@
         <v>218258</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>237</v>
@@ -6649,13 +6694,13 @@
         <v>270599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6715,13 @@
         <v>3342009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>3151</v>
@@ -6685,13 +6730,13 @@
         <v>3326284</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
         <v>6332</v>
@@ -6700,13 +6745,13 @@
         <v>6668293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0489D-1A52-4A53-99C1-8E7F4F1D1F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D26AD-45FC-46BF-89CF-270A50D40246}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6803,7 +6848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6907,46 +6952,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2344</v>
+        <v>2597</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>4897</v>
+        <v>4997</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>452</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>7241</v>
+        <v>7594</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,46 +7003,46 @@
         <v>327</v>
       </c>
       <c r="D5" s="7">
-        <v>257954</v>
+        <v>308846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>458</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>527</v>
       </c>
       <c r="I5" s="7">
-        <v>266506</v>
+        <v>284638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>854</v>
       </c>
       <c r="N5" s="7">
-        <v>524459</v>
+        <v>593483</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7054,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7024,7 +7069,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7039,7 +7084,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7062,46 +7107,46 @@
         <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>15606</v>
+        <v>15014</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>56763</v>
+        <v>52623</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>72369</v>
+        <v>67637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7158,46 @@
         <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>502621</v>
+        <v>502379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
         <v>633</v>
       </c>
       <c r="I8" s="7">
-        <v>496318</v>
+        <v>460944</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
         <v>1000</v>
       </c>
       <c r="N8" s="7">
-        <v>998939</v>
+        <v>963323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7209,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7179,7 +7224,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553081</v>
+        <v>513567</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7194,7 +7239,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071308</v>
+        <v>1030960</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7217,46 +7262,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>13023</v>
+        <v>12444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>30300</v>
+        <v>27936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>485</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>43323</v>
+        <v>40379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,46 +7313,46 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>309217</v>
+        <v>303606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
       </c>
       <c r="I11" s="7">
-        <v>342984</v>
+        <v>321192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>492</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="M11" s="7">
         <v>826</v>
       </c>
       <c r="N11" s="7">
-        <v>652201</v>
+        <v>624799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7364,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7334,7 +7379,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7349,7 +7394,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7372,46 +7417,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>6812</v>
+        <v>6465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>27373</v>
+        <v>25395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>34184</v>
+        <v>31860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,46 +7468,46 @@
         <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>315428</v>
+        <v>306092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
       </c>
       <c r="I14" s="7">
-        <v>401183</v>
+        <v>450323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>829</v>
       </c>
       <c r="N14" s="7">
-        <v>716612</v>
+        <v>756414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,7 +7519,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7489,7 +7534,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7504,7 +7549,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7527,46 +7572,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>12770</v>
+        <v>11589</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
       </c>
       <c r="I16" s="7">
-        <v>47147</v>
+        <v>43056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
       </c>
       <c r="N16" s="7">
-        <v>59917</v>
+        <v>54646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,46 +7623,46 @@
         <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>183978</v>
+        <v>167153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
       </c>
       <c r="I17" s="7">
-        <v>184349</v>
+        <v>165218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>638</v>
       </c>
       <c r="N17" s="7">
-        <v>368327</v>
+        <v>332370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7674,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7644,7 +7689,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7659,7 +7704,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7682,46 +7727,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>10995</v>
+        <v>10501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>40172</v>
+        <v>37376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>51166</v>
+        <v>47877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>540</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,46 +7778,46 @@
         <v>351</v>
       </c>
       <c r="D20" s="7">
-        <v>266228</v>
+        <v>259135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="H20" s="7">
         <v>374</v>
       </c>
       <c r="I20" s="7">
-        <v>234733</v>
+        <v>219011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
       </c>
       <c r="N20" s="7">
-        <v>500961</v>
+        <v>478146</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7829,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7799,7 +7844,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7814,7 +7859,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7837,46 +7882,46 @@
         <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>55218</v>
+        <v>52513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>230</v>
       </c>
       <c r="I22" s="7">
-        <v>153806</v>
+        <v>141848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>292</v>
       </c>
       <c r="N22" s="7">
-        <v>209024</v>
+        <v>194361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,46 +7933,46 @@
         <v>536</v>
       </c>
       <c r="D23" s="7">
-        <v>571759</v>
+        <v>571047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="H23" s="7">
         <v>729</v>
       </c>
       <c r="I23" s="7">
-        <v>650238</v>
+        <v>707257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>1265</v>
       </c>
       <c r="N23" s="7">
-        <v>1221996</v>
+        <v>1278304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7984,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626977</v>
+        <v>623560</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7954,7 +7999,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>804044</v>
+        <v>849105</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7969,7 +8014,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1431020</v>
+        <v>1472665</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7992,46 +8037,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>12799</v>
+        <v>10751</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>556</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
       </c>
       <c r="I25" s="7">
-        <v>40064</v>
+        <v>33145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>52862</v>
+        <v>43896</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>561</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,46 +8088,46 @@
         <v>749</v>
       </c>
       <c r="D26" s="7">
-        <v>846629</v>
+        <v>917969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>565</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>1006</v>
       </c>
       <c r="I26" s="7">
-        <v>825608</v>
+        <v>682247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>1755</v>
       </c>
       <c r="N26" s="7">
-        <v>1672238</v>
+        <v>1600216</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>570</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,7 +8139,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8109,7 +8154,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8124,7 +8169,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8147,46 +8192,46 @@
         <v>159</v>
       </c>
       <c r="D28" s="7">
-        <v>129566</v>
+        <v>121874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>571</v>
+        <v>57</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>572</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>207</v>
+        <v>584</v>
       </c>
       <c r="H28" s="7">
         <v>681</v>
       </c>
       <c r="I28" s="7">
-        <v>400520</v>
+        <v>366375</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="M28" s="7">
         <v>840</v>
       </c>
       <c r="N28" s="7">
-        <v>530086</v>
+        <v>488249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,46 +8243,46 @@
         <v>3215</v>
       </c>
       <c r="D29" s="7">
-        <v>3253814</v>
+        <v>3336227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>579</v>
+        <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>590</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>580</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>4677</v>
       </c>
       <c r="I29" s="7">
-        <v>3401920</v>
+        <v>3290829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>7892</v>
       </c>
       <c r="N29" s="7">
-        <v>6655734</v>
+        <v>6627057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>586</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,7 +8294,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383380</v>
+        <v>3458101</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8264,7 +8309,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802440</v>
+        <v>3657204</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8279,7 +8324,7 @@
         <v>8732</v>
       </c>
       <c r="N30" s="7">
-        <v>7185820</v>
+        <v>7115306</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
